--- a/inst/extdata/screening_stat_dict.xlsx
+++ b/inst/extdata/screening_stat_dict.xlsx
@@ -32,9 +32,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>date_screen</t>
-  </si>
-  <si>
     <t>dob_knwn</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>answer_codes</t>
   </si>
   <si>
-    <t>Date of the enrolment</t>
-  </si>
-  <si>
     <t>a1) Do you know the date of birth of the child?</t>
   </si>
   <si>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>0: Baseline visit; 1: repeat visit</t>
+  </si>
+  <si>
+    <t>date_visit</t>
+  </si>
+  <si>
+    <t>Date of the screening</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,21 +597,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -619,16 +619,16 @@
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -636,13 +636,13 @@
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -651,236 +651,236 @@
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
